--- a/ASSET HANDOVER ABCH - FORM Revisi Result.xlsx
+++ b/ASSET HANDOVER ABCH - FORM Revisi Result.xlsx
@@ -10,14 +10,14 @@
     <sheet name="FA HandOver - ASTON - FC to DH" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'FA HandOver - ASTON - FC to DH'!$A$1:$K$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'FA HandOver - ASTON - FC to DH'!$A$1:$K$44</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Aston Bojonegoro City Hotel</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Handover Date</t>
   </si>
   <si>
-    <t>30-06-2020</t>
+    <t>03-07-2020</t>
   </si>
   <si>
     <t>Please find below for the assets handed over to you, to support you in carrying out your assignment in the most proficient manner</t>
@@ -91,25 +91,16 @@
     <t>Ytd Depreciation</t>
   </si>
   <si>
-    <t>AK101118000001</t>
-  </si>
-  <si>
-    <t>Printer Inkjet</t>
-  </si>
-  <si>
-    <t>05-12-2018</t>
-  </si>
-  <si>
-    <t>AB1TNH13000002</t>
-  </si>
-  <si>
-    <t>Table GM</t>
-  </si>
-  <si>
-    <t>05-12-2013</t>
-  </si>
-  <si>
-    <t>Approved by: Financial Controller, Financial Controller, Financial Controller</t>
+    <t>AK101113000119</t>
+  </si>
+  <si>
+    <t>IT - Notebook</t>
+  </si>
+  <si>
+    <t>01-10-2013</t>
+  </si>
+  <si>
+    <t>Approved by: -, -, -</t>
   </si>
   <si>
     <t>:</t>
@@ -1225,7 +1216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVS50"/>
+  <dimension ref="A1:WVS49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="B26" sqref="B26"/>
@@ -2161,75 +2152,53 @@
         <v>26</v>
       </c>
       <c r="F26" s="87">
-        <v>1000000.0</v>
-      </c>
-      <c r="G26" s="87">
-        <v>250000.0</v>
-      </c>
-      <c r="H26" s="87">
-        <v>520833.34</v>
-      </c>
-      <c r="I26" s="87">
-        <v>479166.66</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="63"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:16139" customHeight="1" ht="22.5">
+    <row r="27" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="87">
-        <v>3000000.0</v>
-      </c>
-      <c r="G27" s="87">
-        <v>150000.0</v>
-      </c>
-      <c r="H27" s="87">
-        <v>1062500.0</v>
-      </c>
-      <c r="I27" s="87">
-        <v>1937500.0</v>
-      </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
+    <row r="29" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
@@ -2247,98 +2216,98 @@
     </row>
     <row r="31" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="6"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+    <row r="32" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
+      <c r="B32" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="101"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="119"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="120"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
+    <row r="33" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="101"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="119"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="120"/>
+      <c r="B33" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
+    <row r="34" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="14"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
+    <row r="35" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="B35" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="123"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="123"/>
+      <c r="B36" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="116"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
+    <row r="37" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="115" t="s">
-        <v>33</v>
-      </c>
+      <c r="B37" s="115"/>
       <c r="C37" s="116"/>
       <c r="D37" s="117"/>
       <c r="E37" s="117"/>
@@ -2362,17 +2331,17 @@
       <c r="J38" s="118"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
+    <row r="39" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="118"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
@@ -2388,8 +2357,8 @@
       <c r="J40" s="17"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
+      <c r="A41" s="16"/>
       <c r="B41" s="29"/>
       <c r="C41" s="75"/>
       <c r="D41" s="30"/>
@@ -2398,10 +2367,10 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
+      <c r="J41" s="32"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="1:16139" customHeight="1" ht="20.1" s="18" customFormat="1">
       <c r="A42" s="16"/>
       <c r="B42" s="29"/>
       <c r="C42" s="75"/>
@@ -2410,68 +2379,67 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="32"/>
+      <c r="I42" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="99"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="1:16139" customHeight="1" ht="20.1" s="18" customFormat="1">
+    <row r="43" spans="1:16139" customHeight="1" ht="15" s="18" customFormat="1">
       <c r="A43" s="16"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="99"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:16139" customHeight="1" ht="15" s="18" customFormat="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:16139" customHeight="1" ht="9.95" s="3" customFormat="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:16139" customHeight="1" ht="15.75" s="3" customFormat="1">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+    <row r="44" spans="1:16139" customHeight="1" ht="9.95" s="3" customFormat="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:16139" customHeight="1" ht="15.75" s="3" customFormat="1">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:16139">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:16139">
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
@@ -2482,49 +2450,37 @@
     <row r="48" spans="1:16139">
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="1:16139">
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="40"/>
-    </row>
-    <row r="50" spans="1:16139">
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B37:J39"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B36:J38"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="B23:J23"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
